--- a/value.xlsx
+++ b/value.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="28035" windowHeight="12555"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="28035" windowHeight="12555" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
+    <sheet name="Cube0.5" sheetId="2" r:id="rId2"/>
+    <sheet name="House 121" sheetId="3" r:id="rId3"/>
+    <sheet name="Tree" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="26">
   <si>
     <t>PX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +72,52 @@
   </si>
   <si>
     <t>center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m[1]</t>
+  </si>
+  <si>
+    <t>m[2]</t>
+  </si>
+  <si>
+    <t>Front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>********************************************************************************************</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,9 +164,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -242,11 +292,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92902912"/>
-        <c:axId val="130069568"/>
+        <c:axId val="124596736"/>
+        <c:axId val="36794304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92902912"/>
+        <c:axId val="124596736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -255,7 +305,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130069568"/>
+        <c:crossAx val="36794304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -263,7 +313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130069568"/>
+        <c:axId val="36794304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -274,7 +324,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92902912"/>
+        <c:crossAx val="124596736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -403,11 +453,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="127073280"/>
-        <c:axId val="130071872"/>
+        <c:axId val="124597248"/>
+        <c:axId val="36796032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127073280"/>
+        <c:axId val="124597248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -416,7 +466,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130071872"/>
+        <c:crossAx val="36796032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -424,7 +474,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130071872"/>
+        <c:axId val="36796032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -435,7 +485,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127073280"/>
+        <c:crossAx val="124597248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -564,11 +614,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="127071232"/>
-        <c:axId val="137750784"/>
+        <c:axId val="124597760"/>
+        <c:axId val="36797760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127071232"/>
+        <c:axId val="124597760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -577,7 +627,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137750784"/>
+        <c:crossAx val="36797760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -585,7 +635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137750784"/>
+        <c:axId val="36797760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -596,7 +646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127071232"/>
+        <c:crossAx val="124597760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -725,11 +775,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="129637888"/>
-        <c:axId val="137753664"/>
+        <c:axId val="124598272"/>
+        <c:axId val="105464960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129637888"/>
+        <c:axId val="124598272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +788,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137753664"/>
+        <c:crossAx val="105464960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -746,7 +796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137753664"/>
+        <c:axId val="105464960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -757,7 +807,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129637888"/>
+        <c:crossAx val="124598272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1193,7 +1243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
@@ -1695,25 +1745,717 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>180</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-8.9560000000000004E-3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
+        <v>-0.105</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-0.80200000000000005</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
+        <v>-0.1056</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>90</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-0.02</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-7.5999999999999998E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-0.80700000000000005</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>-0.105</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.191</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>270</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-7.7259999999999995E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-0.79700000000000004</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
+        <v>-0.105</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>306</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-4.4200000000000003E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-7.9000000000000001E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <v>2.2065000000000001E-2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-7.5999999999999998E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-0.83899999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1">
+        <v>-4.3900000000000002E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-0.81599999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
+        <v>-0.05</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-0.77378999999999998</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-0.79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1">
+        <f>MAX(B2:B14)</f>
+        <v>2.2065000000000001E-2</v>
+      </c>
+      <c r="C15" s="1">
+        <f>MAX(C2:C14)</f>
+        <v>-7.5999999999999998E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <f>MAX(D2:D14)</f>
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>SUM(F4,B15)</f>
+        <v>2.0650000000000009E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-0.43</v>
+      </c>
+      <c r="C17" s="1">
+        <f>MIN(C2:C15)</f>
+        <v>-0.77378999999999998</v>
+      </c>
+      <c r="D17" s="1">
+        <f>MIN(D2:D15)</f>
+        <v>-0.83899999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="4" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>180</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-8.8999999999999999E-3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.43980000000000002</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-1.3878999999999999</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
+        <v>0.38550000000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>90</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.4395</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-1.38</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>270</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.439</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-1.39</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>360</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.43969999999999998</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-1.385</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1">
+        <v>0.441</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-1.4248000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="C12" s="1">
+        <f>MAX(C2:C11)</f>
+        <v>0.441</v>
+      </c>
+      <c r="D12" s="1">
+        <f>MAX(D2:D11)</f>
+        <v>0.51100000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>-0.9</v>
+      </c>
+      <c r="C13">
+        <f>MIN(C2:C12)</f>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="D13">
+        <f>MIN(D2:D12)</f>
+        <v>-1.4248000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="5" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>180</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-8.8999999999999999E-3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-0.77300000000000002</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.22559999999999999</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>90</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.92169999999999996</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-0.74990000000000001</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
+        <v>0.89322999999999997</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.24959999999999999</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>270</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-0.02</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-0.79700000000000004</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>360</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.9224</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-0.77390000000000003</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1">
+        <v>0.89390000000000003</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.22559999999999999</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0.49</v>
+      </c>
+      <c r="C17">
+        <v>0.92</v>
+      </c>
+      <c r="D17">
+        <v>-0.69299999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>-0.60850000000000004</v>
+      </c>
+      <c r="D18">
+        <v>-0.85489999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
